--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44547</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44875</v>
+        <v>44547</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L3" t="n">
         <v>1600</v>
       </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44547</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L2" t="n">
         <v>1600</v>
       </c>
-      <c r="L2" t="n">
-        <v>1700</v>
-      </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44547</v>
+        <v>44875</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44547</v>
+        <v>45237</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1950</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,12 +595,84 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1950</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44547</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>400</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>45237</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45237</v>
+        <v>44875</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45237</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44875</v>
+        <v>45237</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
